--- a/数据整理/stocks/A股/科创板/688561-奇安信.xlsx
+++ b/数据整理/stocks/A股/科创板/688561-奇安信.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006718</t>
+          <t>506000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国融融盛龙头严选混合A</t>
+          <t>南方科创板 3 年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.33</t>
+          <t>30.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7301</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006719</t>
+          <t>009411</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国融融盛龙头严选混合C</t>
+          <t>中银科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81.33</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3059</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011060</t>
+          <t>550001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>西部利得策略优选混合C</t>
+          <t>信诚四季红混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.67</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007381</t>
+          <t>671010</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国融融信消费严选混合A</t>
+          <t>西部利得策略优选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.88</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007382</t>
+          <t>006209</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国融融信消费严选混合C</t>
+          <t>中信保诚新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.88</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001279</t>
+          <t>000432</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中海积极增利灵活配置混合</t>
+          <t>中银优秀企业混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.02</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>671010</t>
+          <t>001279</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>西部利得策略优选混合A</t>
+          <t>中海积极增利灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.67</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009411</t>
+          <t>001663</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中银科技创新一年定期开放混合</t>
+          <t>中银互联网+股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>506000</t>
+          <t>007423</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方科创板 3 年定期开放混合</t>
+          <t>西部利得聚禾灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.54</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001663</t>
+          <t>008037</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中银互联网+股票</t>
+          <t>兴银先锋成长混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>85.31</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004212</t>
+          <t>519935</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中融量化智选混合A</t>
+          <t>长信创新驱动股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>95.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004783</t>
+          <t>004211</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中融量化智选混合C</t>
+          <t>金鹰周期优选灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000432</t>
+          <t>007381</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中银优秀企业混合</t>
+          <t>国融融信消费严选混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>89.99</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>550001</t>
+          <t>002303</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>信诚四季红混合</t>
+          <t>金鹰智慧生活灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>86.26</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002745</t>
+          <t>006718</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>北信瑞丰丰利混合</t>
+          <t>国融融盛龙头严选混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>39.23</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002303</t>
+          <t>007424</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金鹰智慧生活灵活配置混合</t>
+          <t>西部利得聚禾灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>91.99</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>8.25</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -940,25 +1110,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>519935</t>
+          <t>008038</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>长信创新驱动股票</t>
+          <t>兴银先锋成长混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>95.32</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>7</v>
       </c>
     </row>
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002862</t>
+          <t>006231</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金信量化精选灵活配置混合</t>
+          <t>国融融君灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>56.48</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>004211</t>
+          <t>004212</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金鹰周期优选灵活配置混合</t>
+          <t>中融量化智选混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006231</t>
+          <t>007382</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合A</t>
+          <t>国融融信消费严选混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006232</t>
+          <t>002862</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合C</t>
+          <t>金信量化精选灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
+          <t>56.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>007423</t>
+          <t>002745</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>西部利得聚禾灵活配置混合A</t>
+          <t>北信瑞丰丰利混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>69.50</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
+          <t>39.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>007424</t>
+          <t>011060</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>西部利得聚禾灵活配置混合C</t>
+          <t>西部利得策略优选混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>69.50</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>5</v>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1136,25 +1376,33 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>008037</t>
+          <t>006719</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合A</t>
+          <t>国融融盛龙头严选混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>80.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1164,26 +1412,34 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>008038</t>
+          <t>004783</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合C</t>
+          <t>中融量化智选混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>80.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1192,25 +1448,33 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>006209</t>
+          <t>006232</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
+          <t>国融融君灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>89.57</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1225,7 +1489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1246,15 +1510,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1266,26 +1540,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000432</t>
+          <t>008120</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银优秀企业混合</t>
+          <t>万家自主创新混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.61</t>
+          <t>33.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4698</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1304,15 +1588,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>83.03</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.51</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2141</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1322,25 +1616,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008120</t>
+          <t>008121</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家自主创新混合A</t>
+          <t>万家自主创新混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.05</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.39</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1350,26 +1654,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008121</t>
+          <t>000432</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家自主创新混合C</t>
+          <t>中银优秀企业混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>87.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688561-奇安信.xlsx
+++ b/数据整理/stocks/A股/科创板/688561-奇安信.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1689,4 +1690,286 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688561-奇安信.xlsx
+++ b/数据整理/stocks/A股/科创板/688561-奇安信.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1972,4 +1973,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3126</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4158</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688561-奇安信.xlsx
+++ b/数据整理/stocks/A股/科创板/688561-奇安信.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2181,4 +2182,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688561-奇安信.xlsx
+++ b/数据整理/stocks/A股/科创板/688561-奇安信.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2190,7 +2191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2201,17 +2202,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2221,14 +2242,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.78</v>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2237,14 +2280,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="4">
@@ -2253,14 +2386,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.86</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -2269,13 +2402,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>26</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688561-奇安信.xlsx
+++ b/数据整理/stocks/A股/科创板/688561-奇安信.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2323,7 +2324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2334,17 +2335,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2354,14 +2375,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4</v>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2370,14 +2413,102 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.78</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -2386,14 +2517,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="5">
@@ -2402,14 +2533,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>2.86</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -2418,13 +2549,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>26</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688561-奇安信.xlsx
+++ b/数据整理/stocks/A股/科创板/688561-奇安信.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2454,7 +2455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2465,17 +2466,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2485,14 +2506,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2501,14 +2544,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4</v>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2517,14 +2582,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.78</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -2533,14 +2704,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="6">
@@ -2549,14 +2720,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>2.86</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -2565,13 +2736,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>26</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688561-奇安信.xlsx
+++ b/数据整理/stocks/A股/科创板/688561-奇安信.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.78</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>2.86</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>26</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.86</v>
       </c>
     </row>
@@ -656,32 +673,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>167702</t>
+          <t>013554</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>德邦量化优选股票(LOF)A</t>
+          <t>信澳远见价值混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>48.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0187</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>090011</t>
+          <t>013555</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成核心双动力混合</t>
+          <t>信澳远见价值混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>48.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -732,32 +749,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>167703</t>
+          <t>090011</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>德邦量化优选股票(LOF)C</t>
+          <t>大成核心双动力混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>92.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.0060</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -775,7 +792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,32 +843,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006231</t>
+          <t>167702</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合A</t>
+          <t>德邦量化优选股票(LOF)A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>57.39</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -864,33 +881,73 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006232</t>
+          <t>090011</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合C</t>
+          <t>大成核心双动力混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>57.39</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
       </c>
       <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -956,32 +1013,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005885</t>
+          <t>006231</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票C</t>
+          <t>国融融君灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.60</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>57.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3234</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -994,33 +1051,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003853</t>
+          <t>006232</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票A</t>
+          <t>国融融君灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0752</t>
-        </is>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>9</v>
@@ -1032,6 +1087,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1239,7 +1426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1521,7 +1708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1729,7 +1916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688561-奇安信.xlsx
+++ b/数据整理/stocks/A股/科创板/688561-奇安信.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1.78</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>2.86</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,1072 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>2.86</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>26</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7301</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3059</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001663</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银互联网+股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>56.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002745</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>北信瑞丰丰利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +1677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,36 +1728,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>013554</t>
+          <t>506000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信澳远见价值混合A</t>
+          <t>南方科创板 3 年定开混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>24.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>48.39</t>
+          <t>91.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.9034</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1766,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013555</t>
+          <t>004932</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信澳远见价值混合C</t>
+          <t>招商丰拓灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>48.39</t>
+          <t>90.46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.2424</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +1804,682 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>090011</t>
+          <t>004933</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成核心双动力混合</t>
+          <t>招商丰拓灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>90.46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.2362</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>41.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>41.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015211</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>40.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>42.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>40.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015212</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>40.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>41.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>42.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013701</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商稳锦混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>50.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>41.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>40.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013702</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商稳锦混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -843,32 +2544,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>167702</t>
+          <t>013554</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>德邦量化优选股票(LOF)A</t>
+          <t>信澳远见价值混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>48.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0187</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -881,36 +2582,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>090011</t>
+          <t>013555</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成核心双动力混合</t>
+          <t>信澳远见价值混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>48.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -919,32 +2620,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>167703</t>
+          <t>090011</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>德邦量化优选股票(LOF)C</t>
+          <t>大成核心双动力混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>92.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.0060</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -962,7 +2663,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1013,32 +2714,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006231</t>
+          <t>167702</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合A</t>
+          <t>德邦量化优选股票(LOF)A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>57.39</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1051,33 +2752,73 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006232</t>
+          <t>090011</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合C</t>
+          <t>大成核心双动力混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>57.39</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
       </c>
       <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1143,32 +2884,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005885</t>
+          <t>006231</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票C</t>
+          <t>国融融君灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.60</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>57.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3234</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1181,33 +2922,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003853</t>
+          <t>006232</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票A</t>
+          <t>国融融君灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0752</t>
-        </is>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>9</v>
@@ -1219,6 +2958,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1426,7 +3297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1708,7 +3579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1914,1042 +3785,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>506000</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方科创板 3 年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.54</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7301</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009411</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中银科技创新一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3059</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>550001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信诚四季红混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2481</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>671010</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>西部利得策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1771</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006209</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1053</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000432</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中银优秀企业混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.99</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0461</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001279</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中海积极增利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>84.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0395</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001663</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中银互联网+股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>85.31</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0330</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007423</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>西部利得聚禾灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>69.50</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0320</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008037</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>兴银先锋成长混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>80.03</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0305</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519935</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长信创新驱动股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>95.32</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004211</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>金鹰周期优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0215</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007381</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国融融信消费严选混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>82.88</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002303</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>金鹰智慧生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>8.25</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006718</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国融融盛龙头严选混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>81.33</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007424</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>西部利得聚禾灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>69.50</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008038</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>兴银先锋成长混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>80.03</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006231</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国融融君灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>82.93</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004212</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中融量化智选混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007382</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>国融融信消费严选混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>82.88</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002862</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>金信量化精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>56.48</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002745</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>北信瑞丰丰利混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>39.23</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>011060</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>西部利得策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006719</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>国融融盛龙头严选混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>81.33</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004783</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中融量化智选混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006232</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>国融融君灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>82.93</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>